--- a/histogram-happy.xlsx
+++ b/histogram-happy.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="120" yWindow="75" windowWidth="17235" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Диаграмма1" sheetId="2" r:id="rId1"/>
-    <sheet name="histogram-happy" sheetId="1" r:id="rId2"/>
+    <sheet name="Диаграмма2" sheetId="5" r:id="rId1"/>
+    <sheet name="Гистограмма" sheetId="2" r:id="rId2"/>
+    <sheet name="histogram-happy" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Количтсво кандидатов прошедших в КС</t>
   </si>
@@ -33,21 +34,6 @@
   </si>
   <si>
     <t>Националисты</t>
-  </si>
-  <si>
-    <t>58.0545371081</t>
-  </si>
-  <si>
-    <t>54.592987819</t>
-  </si>
-  <si>
-    <t>57.5729394223</t>
-  </si>
-  <si>
-    <t>46.2154111275</t>
-  </si>
-  <si>
-    <t>62.252237898</t>
   </si>
 </sst>
 </file>
@@ -550,8 +536,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -624,6 +611,323 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'histogram-happy'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Все</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3000"/>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'histogram-happy'!$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>58.0545371081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'histogram-happy'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Гражданские</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3000"/>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'histogram-happy'!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>54.592987819000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'histogram-happy'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Либералы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3000"/>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'histogram-happy'!$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>57.572939422300003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'histogram-happy'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Левые</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200"/>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'histogram-happy'!$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>46.215411127499998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'histogram-happy'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Националисты</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3000"/>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'histogram-happy'!$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>62.252237897999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-4"/>
+        <c:axId val="43643648"/>
+        <c:axId val="43645952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="43643648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43645952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43645952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43643648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1152,11 +1456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85861504"/>
-        <c:axId val="85863040"/>
+        <c:axId val="79110528"/>
+        <c:axId val="79112064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85861504"/>
+        <c:axId val="79110528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85863040"/>
+        <c:crossAx val="79112064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1174,7 +1478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85863040"/>
+        <c:axId val="79112064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85861504"/>
+        <c:crossAx val="79110528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1213,7 +1517,45 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9301574" cy="6079537"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -1529,7 +1871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1774,20 +2118,20 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
+      <c r="B14" s="1">
+        <v>58.0545371081</v>
+      </c>
+      <c r="C14" s="1">
+        <v>54.592987819000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>57.572939422300003</v>
+      </c>
+      <c r="E14" s="1">
+        <v>46.215411127499998</v>
+      </c>
+      <c r="F14" s="1">
+        <v>62.252237897999997</v>
       </c>
     </row>
   </sheetData>

--- a/histogram-happy.xlsx
+++ b/histogram-happy.xlsx
@@ -860,21 +860,21 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-4"/>
-        <c:axId val="43643648"/>
-        <c:axId val="43645952"/>
+        <c:axId val="78846208"/>
+        <c:axId val="78860288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43643648"/>
+        <c:axId val="78846208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43645952"/>
+        <c:crossAx val="78860288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -882,7 +882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43645952"/>
+        <c:axId val="78860288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -894,7 +894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43643648"/>
+        <c:crossAx val="78846208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1456,11 +1456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79110528"/>
-        <c:axId val="79112064"/>
+        <c:axId val="79207424"/>
+        <c:axId val="79213312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79110528"/>
+        <c:axId val="79207424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79112064"/>
+        <c:crossAx val="79213312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1478,7 +1478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79112064"/>
+        <c:axId val="79213312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,14 +1489,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79110528"/>
+        <c:crossAx val="79207424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
